--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2283.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2283.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.133911919733091</v>
+        <v>1.195798516273499</v>
       </c>
       <c r="B1">
-        <v>3.022829078477236</v>
+        <v>2.479881048202515</v>
       </c>
       <c r="C1">
-        <v>4.145773497376666</v>
+        <v>4.013492107391357</v>
       </c>
       <c r="D1">
-        <v>3.30610840730467</v>
+        <v>2.11854100227356</v>
       </c>
       <c r="E1">
-        <v>1.222235638063484</v>
+        <v>1.185153484344482</v>
       </c>
     </row>
   </sheetData>
